--- a/LIS/bfcum.xlsx
+++ b/LIS/bfcum.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIHASA\Documents\GitHub\master\LIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC86F0-7641-481C-8493-866EA14BD828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491812C5-871D-4BB7-8EC6-F8C383790F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AT$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -533,13 +536,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12:H21"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -661,7 +665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" hidden="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -809,7 +813,7 @@
         <v>25.2(25.2)</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" hidden="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -957,7 +961,7 @@
         <v>29.1(54.3)</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" hidden="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>21.7(76)</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" hidden="1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>11.2(87.2)</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" hidden="1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>6(93.2)</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" hidden="1">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>2.9(96.1)</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" hidden="1">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>1.6(97.7)</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" hidden="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>1(98.6)</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" hidden="1">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>0.8(99.4)</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" hidden="1">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2148,71 +2152,71 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
+        <v>4038535.5</v>
+      </c>
+      <c r="E12">
         <v>177160544</v>
       </c>
-      <c r="E12" s="1">
-        <v>2160006.75</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <v>2160006.7999999998</v>
+      </c>
+      <c r="G12">
         <v>12735363</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>14895370</v>
       </c>
-      <c r="H12" s="1">
-        <v>14895370</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.10681616514921188</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.10681616514921188</v>
-      </c>
-      <c r="K12" s="2">
-        <v>34.058563232421875</v>
-      </c>
-      <c r="L12" s="2">
-        <v>34.058563232421875</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.63583016395568848</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.63583016395568848</v>
-      </c>
-      <c r="O12" s="2">
-        <v>2.7937092781066895</v>
-      </c>
-      <c r="P12" s="2">
-        <v>2.7937092781066895</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1.8722821474075317</v>
-      </c>
-      <c r="R12" s="2">
-        <v>1.8722821474075317</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>34.1</v>
+      </c>
+      <c r="L12">
+        <v>34.1</v>
+      </c>
+      <c r="M12">
+        <v>0.6</v>
+      </c>
+      <c r="N12">
+        <v>0.6</v>
+      </c>
+      <c r="O12">
+        <v>2.8</v>
+      </c>
+      <c r="P12">
+        <v>2.8</v>
+      </c>
+      <c r="Q12">
+        <v>1.9</v>
+      </c>
+      <c r="R12">
+        <v>1.9</v>
+      </c>
+      <c r="S12">
         <v>162265168</v>
       </c>
-      <c r="T12" s="2">
-        <v>-58.917987823486328</v>
-      </c>
-      <c r="U12" s="2">
-        <v>-58.917987823486328</v>
-      </c>
-      <c r="V12" s="1">
+      <c r="T12">
+        <v>-58.9</v>
+      </c>
+      <c r="U12">
+        <v>-58.9</v>
+      </c>
+      <c r="V12">
         <v>162364896</v>
       </c>
-      <c r="W12" s="2">
-        <v>45.792762756347656</v>
-      </c>
-      <c r="X12" s="2">
-        <v>45.792762756347656</v>
+      <c r="W12">
+        <v>45.8</v>
+      </c>
+      <c r="X12">
+        <v>45.8</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" si="1"/>
@@ -2296,71 +2300,71 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
+        <v>85642760</v>
+      </c>
+      <c r="E13">
         <v>97455840</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13">
         <v>2141879</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13">
         <v>13728234</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13">
         <v>15870112</v>
       </c>
-      <c r="H13" s="1">
-        <v>15870112</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2.2651851177215576</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2.3720014095306396</v>
-      </c>
-      <c r="K13" s="2">
-        <v>18.73558235168457</v>
-      </c>
-      <c r="L13" s="2">
-        <v>52.794147491455078</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.63049399852752686</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1.2663241624832153</v>
-      </c>
-      <c r="O13" s="2">
-        <v>3.0115115642547607</v>
-      </c>
-      <c r="P13" s="2">
-        <v>5.8052206039428711</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1.9948028326034546</v>
-      </c>
-      <c r="R13" s="2">
-        <v>3.8670849800109863</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="I13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J13">
+        <v>2.4</v>
+      </c>
+      <c r="K13">
+        <v>18.7</v>
+      </c>
+      <c r="L13">
+        <v>52.8</v>
+      </c>
+      <c r="M13">
+        <v>0.6</v>
+      </c>
+      <c r="N13">
+        <v>1.3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>5.8</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>3.9</v>
+      </c>
+      <c r="S13">
         <v>81585728</v>
       </c>
-      <c r="T13" s="2">
-        <v>-29.623529434204102</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-88.541519165039063</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="T13">
+        <v>-29.6</v>
+      </c>
+      <c r="U13">
+        <v>-88.5</v>
+      </c>
+      <c r="V13">
         <v>82665664</v>
       </c>
-      <c r="W13" s="2">
-        <v>23.314701080322266</v>
-      </c>
-      <c r="X13" s="2">
-        <v>69.107460021972656</v>
+      <c r="W13">
+        <v>23.3</v>
+      </c>
+      <c r="X13">
+        <v>69.099999999999994</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" si="1"/>
@@ -2444,71 +2448,71 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
+        <v>173495232</v>
+      </c>
+      <c r="E14">
         <v>67036136</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14">
         <v>4717349</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14">
         <v>23822992</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14">
         <v>28540340</v>
       </c>
-      <c r="H14" s="1">
-        <v>28540340</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4.5888156890869141</v>
-      </c>
-      <c r="J14" s="2">
-        <v>6.9608168601989746</v>
-      </c>
-      <c r="K14" s="2">
-        <v>12.887489318847656</v>
-      </c>
-      <c r="L14" s="2">
-        <v>65.681632995605469</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.3886219263076782</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2.6549463272094727</v>
-      </c>
-      <c r="O14" s="2">
-        <v>5.2259607315063477</v>
-      </c>
-      <c r="P14" s="2">
-        <v>11.031182289123535</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>3.5873942375183105</v>
-      </c>
-      <c r="R14" s="2">
-        <v>7.4544787406921387</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="I14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>12.9</v>
+      </c>
+      <c r="L14">
+        <v>65.7</v>
+      </c>
+      <c r="M14">
+        <v>1.4</v>
+      </c>
+      <c r="N14">
+        <v>2.7</v>
+      </c>
+      <c r="O14">
+        <v>5.2</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>3.6</v>
+      </c>
+      <c r="R14">
+        <v>7.5</v>
+      </c>
+      <c r="S14">
         <v>38495792</v>
       </c>
-      <c r="T14" s="2">
-        <v>-13.977705001831055</v>
-      </c>
-      <c r="U14" s="2">
-        <v>-102.51922607421875</v>
-      </c>
-      <c r="V14" s="1">
+      <c r="T14">
+        <v>-14</v>
+      </c>
+      <c r="U14">
+        <v>-102.5</v>
+      </c>
+      <c r="V14">
         <v>48715352</v>
       </c>
-      <c r="W14" s="2">
-        <v>13.739487648010254</v>
-      </c>
-      <c r="X14" s="2">
-        <v>82.846954345703125</v>
+      <c r="W14">
+        <v>13.7</v>
+      </c>
+      <c r="X14">
+        <v>82.8</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" si="1"/>
@@ -2592,71 +2596,71 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
+        <v>241256224</v>
+      </c>
+      <c r="E15">
         <v>41208892</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15">
         <v>6999423.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15">
         <v>29702688</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15">
         <v>36702112</v>
       </c>
-      <c r="H15" s="1">
-        <v>36702112</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6.38104248046875</v>
-      </c>
-      <c r="J15" s="2">
-        <v>13.341858863830566</v>
-      </c>
-      <c r="K15" s="2">
-        <v>7.9222822189331055</v>
-      </c>
-      <c r="L15" s="2">
-        <v>73.603919982910156</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2.0603845119476318</v>
-      </c>
-      <c r="N15" s="2">
-        <v>4.7153306007385254</v>
-      </c>
-      <c r="O15" s="2">
-        <v>6.5157675743103027</v>
-      </c>
-      <c r="P15" s="2">
-        <v>17.54694938659668</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>4.6132931709289551</v>
-      </c>
-      <c r="R15" s="2">
-        <v>12.06777286529541</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="I15">
+        <v>6.4</v>
+      </c>
+      <c r="J15">
+        <v>13.3</v>
+      </c>
+      <c r="K15">
+        <v>7.9</v>
+      </c>
+      <c r="L15">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="M15">
+        <v>2.1</v>
+      </c>
+      <c r="N15">
+        <v>4.7</v>
+      </c>
+      <c r="O15">
+        <v>6.5</v>
+      </c>
+      <c r="P15">
+        <v>17.5</v>
+      </c>
+      <c r="Q15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R15">
+        <v>12.1</v>
+      </c>
+      <c r="S15">
         <v>4506783</v>
       </c>
-      <c r="T15" s="2">
-        <v>-1.6363991498947144</v>
-      </c>
-      <c r="U15" s="2">
-        <v>-104.15562438964844</v>
-      </c>
-      <c r="V15" s="1">
+      <c r="T15">
+        <v>-1.6</v>
+      </c>
+      <c r="U15">
+        <v>-104.2</v>
+      </c>
+      <c r="V15">
         <v>21739556</v>
       </c>
-      <c r="W15" s="2">
-        <v>6.1313395500183105</v>
-      </c>
-      <c r="X15" s="2">
-        <v>88.978286743164063</v>
+      <c r="W15">
+        <v>6.1</v>
+      </c>
+      <c r="X15">
+        <v>89</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" si="1"/>
@@ -2740,71 +2744,71 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
+        <v>301077376</v>
+      </c>
+      <c r="E16">
         <v>44107952</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16">
         <v>13223614</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16">
         <v>36716804</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16">
         <v>49940420</v>
       </c>
-      <c r="H16" s="1">
-        <v>49940420</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7.9632654190063477</v>
-      </c>
-      <c r="J16" s="2">
-        <v>21.305124282836914</v>
-      </c>
-      <c r="K16" s="2">
-        <v>8.4796161651611328</v>
-      </c>
-      <c r="L16" s="2">
-        <v>82.083534240722656</v>
-      </c>
-      <c r="M16" s="2">
-        <v>3.8925676345825195</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8.6078987121582031</v>
-      </c>
-      <c r="O16" s="2">
-        <v>8.0544281005859375</v>
-      </c>
-      <c r="P16" s="2">
-        <v>25.601377487182617</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>6.2772893905639648</v>
-      </c>
-      <c r="R16" s="2">
-        <v>18.345060348510742</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>21.3</v>
+      </c>
+      <c r="K16">
+        <v>8.5</v>
+      </c>
+      <c r="L16">
+        <v>82.1</v>
+      </c>
+      <c r="M16">
+        <v>3.9</v>
+      </c>
+      <c r="N16">
+        <v>8.6</v>
+      </c>
+      <c r="O16">
+        <v>8.1</v>
+      </c>
+      <c r="P16">
+        <v>25.6</v>
+      </c>
+      <c r="Q16">
+        <v>6.3</v>
+      </c>
+      <c r="R16">
+        <v>18.3</v>
+      </c>
+      <c r="S16">
         <v>-5832467.5</v>
       </c>
-      <c r="T16" s="2">
-        <v>2.1177511215209961</v>
-      </c>
-      <c r="U16" s="2">
-        <v>-102.03787231445313</v>
-      </c>
-      <c r="V16" s="1">
+      <c r="T16">
+        <v>2.1</v>
+      </c>
+      <c r="U16">
+        <v>-102</v>
+      </c>
+      <c r="V16">
         <v>20481964</v>
       </c>
-      <c r="W16" s="2">
-        <v>5.7766532897949219</v>
-      </c>
-      <c r="X16" s="2">
-        <v>94.75494384765625</v>
+      <c r="W16">
+        <v>5.8</v>
+      </c>
+      <c r="X16">
+        <v>94.8</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="1"/>
@@ -2888,71 +2892,71 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
+        <v>363976128</v>
+      </c>
+      <c r="E17">
         <v>23029178</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17">
         <v>17618478</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17">
         <v>44495160</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17">
         <v>62113636</v>
       </c>
-      <c r="H17" s="1">
-        <v>62113636</v>
-      </c>
-      <c r="I17" s="2">
-        <v>9.6268892288208008</v>
-      </c>
-      <c r="J17" s="2">
-        <v>30.932014465332031</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4.4272880554199219</v>
-      </c>
-      <c r="L17" s="2">
-        <v>86.510826110839844</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5.1862611770629883</v>
-      </c>
-      <c r="N17" s="2">
-        <v>13.794159889221191</v>
-      </c>
-      <c r="O17" s="2">
-        <v>9.760737419128418</v>
-      </c>
-      <c r="P17" s="2">
-        <v>35.362113952636719</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>7.8074088096618652</v>
-      </c>
-      <c r="R17" s="2">
-        <v>26.152471542358398</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="I17">
+        <v>9.6</v>
+      </c>
+      <c r="J17">
+        <v>30.9</v>
+      </c>
+      <c r="K17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L17">
+        <v>86.5</v>
+      </c>
+      <c r="M17">
+        <v>5.2</v>
+      </c>
+      <c r="N17">
+        <v>13.8</v>
+      </c>
+      <c r="O17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P17">
+        <v>35.4</v>
+      </c>
+      <c r="Q17">
+        <v>7.8</v>
+      </c>
+      <c r="R17">
+        <v>26.2</v>
+      </c>
+      <c r="S17">
         <v>-39084460</v>
       </c>
-      <c r="T17" s="2">
-        <v>14.191447257995605</v>
-      </c>
-      <c r="U17" s="2">
-        <v>-87.846420288085938</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="T17">
+        <v>14.2</v>
+      </c>
+      <c r="U17">
+        <v>-87.8</v>
+      </c>
+      <c r="V17">
         <v>6791949</v>
       </c>
-      <c r="W17" s="2">
-        <v>1.9155747890472412</v>
-      </c>
-      <c r="X17" s="2">
-        <v>96.670516967773438</v>
+      <c r="W17">
+        <v>1.9</v>
+      </c>
+      <c r="X17">
+        <v>96.7</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="1"/>
@@ -3036,71 +3040,71 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
+        <v>433891936</v>
+      </c>
+      <c r="E18">
         <v>19572276</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18">
         <v>24756210</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18">
         <v>53735308</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18">
         <v>78491512</v>
       </c>
-      <c r="H18" s="1">
-        <v>78491512</v>
-      </c>
-      <c r="I18" s="2">
-        <v>11.476109504699707</v>
-      </c>
-      <c r="J18" s="2">
-        <v>42.408123016357422</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3.7627089023590088</v>
-      </c>
-      <c r="L18" s="2">
-        <v>90.273536682128906</v>
-      </c>
-      <c r="M18" s="2">
-        <v>7.2873592376708984</v>
-      </c>
-      <c r="N18" s="2">
-        <v>21.081520080566406</v>
-      </c>
-      <c r="O18" s="2">
-        <v>11.787713050842285</v>
-      </c>
-      <c r="P18" s="2">
-        <v>47.149829864501953</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>9.8660354614257813</v>
-      </c>
-      <c r="R18" s="2">
-        <v>36.018505096435547</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="I18">
+        <v>11.5</v>
+      </c>
+      <c r="J18">
+        <v>42.4</v>
+      </c>
+      <c r="K18">
+        <v>3.8</v>
+      </c>
+      <c r="L18">
+        <v>90.3</v>
+      </c>
+      <c r="M18">
+        <v>7.3</v>
+      </c>
+      <c r="N18">
+        <v>21.1</v>
+      </c>
+      <c r="O18">
+        <v>11.8</v>
+      </c>
+      <c r="P18">
+        <v>47.1</v>
+      </c>
+      <c r="Q18">
+        <v>9.9</v>
+      </c>
+      <c r="R18">
+        <v>36</v>
+      </c>
+      <c r="S18">
         <v>-58919236</v>
       </c>
-      <c r="T18" s="2">
-        <v>21.393394470214844</v>
-      </c>
-      <c r="U18" s="2">
-        <v>-66.453025817871094</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="T18">
+        <v>21.4</v>
+      </c>
+      <c r="U18">
+        <v>-66.5</v>
+      </c>
+      <c r="V18">
         <v>5014585</v>
       </c>
-      <c r="W18" s="2">
-        <v>1.4142940044403076</v>
-      </c>
-      <c r="X18" s="2">
-        <v>98.084815979003906</v>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>98.1</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" si="1"/>
@@ -3184,71 +3188,71 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
+        <v>521254752</v>
+      </c>
+      <c r="E19">
         <v>21018468</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19">
         <v>39233184</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19">
         <v>67929088</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19">
         <v>107162272</v>
       </c>
-      <c r="H19" s="1">
-        <v>107162272</v>
-      </c>
-      <c r="I19" s="2">
-        <v>13.786787986755371</v>
-      </c>
-      <c r="J19" s="2">
-        <v>56.194911956787109</v>
-      </c>
-      <c r="K19" s="2">
-        <v>4.0407352447509766</v>
-      </c>
-      <c r="L19" s="2">
-        <v>94.314262390136719</v>
-      </c>
-      <c r="M19" s="2">
-        <v>11.548871994018555</v>
-      </c>
-      <c r="N19" s="2">
-        <v>32.630390167236328</v>
-      </c>
-      <c r="O19" s="2">
-        <v>14.901350021362305</v>
-      </c>
-      <c r="P19" s="2">
-        <v>62.051177978515625</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>13.469822883605957</v>
-      </c>
-      <c r="R19" s="2">
-        <v>49.488327026367188</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="I19">
+        <v>13.8</v>
+      </c>
+      <c r="J19">
+        <v>56.2</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>94.3</v>
+      </c>
+      <c r="M19">
+        <v>11.5</v>
+      </c>
+      <c r="N19">
+        <v>32.6</v>
+      </c>
+      <c r="O19">
+        <v>14.9</v>
+      </c>
+      <c r="P19">
+        <v>62.1</v>
+      </c>
+      <c r="Q19">
+        <v>13.5</v>
+      </c>
+      <c r="R19">
+        <v>49.5</v>
+      </c>
+      <c r="S19">
         <v>-86143808</v>
       </c>
-      <c r="T19" s="2">
-        <v>31.27855110168457</v>
-      </c>
-      <c r="U19" s="2">
-        <v>-35.174476623535156</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="T19">
+        <v>31.3</v>
+      </c>
+      <c r="U19">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="V19">
         <v>3039200</v>
       </c>
-      <c r="W19" s="2">
-        <v>0.85716408491134644</v>
-      </c>
-      <c r="X19" s="2">
-        <v>98.941978454589844</v>
+      <c r="W19">
+        <v>0.9</v>
+      </c>
+      <c r="X19">
+        <v>98.9</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="1"/>
@@ -3332,71 +3336,71 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
+        <v>623418624</v>
+      </c>
+      <c r="E20">
         <v>14588864</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20">
         <v>52125820</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20">
         <v>72487392</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>124613216</v>
       </c>
-      <c r="H20" s="1">
-        <v>124613216</v>
-      </c>
-      <c r="I20" s="2">
-        <v>16.488945007324219</v>
-      </c>
-      <c r="J20" s="2">
-        <v>72.683860778808594</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2.8046636581420898</v>
-      </c>
-      <c r="L20" s="2">
-        <v>97.118934631347656</v>
-      </c>
-      <c r="M20" s="2">
-        <v>15.344011306762695</v>
-      </c>
-      <c r="N20" s="2">
-        <v>47.974403381347656</v>
-      </c>
-      <c r="O20" s="2">
-        <v>15.901288032531738</v>
-      </c>
-      <c r="P20" s="2">
-        <v>77.952468872070313</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>15.663329124450684</v>
-      </c>
-      <c r="R20" s="2">
-        <v>65.151657104492188</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="I20">
+        <v>16.5</v>
+      </c>
+      <c r="J20">
+        <v>72.7</v>
+      </c>
+      <c r="K20">
+        <v>2.8</v>
+      </c>
+      <c r="L20">
+        <v>97.1</v>
+      </c>
+      <c r="M20">
+        <v>15.3</v>
+      </c>
+      <c r="N20">
+        <v>48</v>
+      </c>
+      <c r="O20">
+        <v>15.9</v>
+      </c>
+      <c r="P20">
+        <v>78</v>
+      </c>
+      <c r="Q20">
+        <v>15.7</v>
+      </c>
+      <c r="R20">
+        <v>65.2</v>
+      </c>
+      <c r="S20">
         <v>-110024352</v>
       </c>
-      <c r="T20" s="2">
-        <v>39.949504852294922</v>
-      </c>
-      <c r="U20" s="2">
-        <v>4.7750263214111328</v>
-      </c>
-      <c r="V20" s="1">
+      <c r="T20">
+        <v>39.9</v>
+      </c>
+      <c r="U20">
+        <v>4.8</v>
+      </c>
+      <c r="V20">
         <v>3458295</v>
       </c>
-      <c r="W20" s="2">
-        <v>0.97536396980285645</v>
-      </c>
-      <c r="X20" s="2">
-        <v>99.917343139648438</v>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>99.9</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" si="1"/>
@@ -3480,70 +3484,70 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
+        <v>1032776384</v>
+      </c>
+      <c r="E21">
         <v>14986302</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21">
         <v>176738464</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21">
         <v>100505568</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21">
         <v>277244032</v>
       </c>
-      <c r="H21" s="1">
-        <v>277244032</v>
-      </c>
-      <c r="I21" s="2">
-        <v>27.316144943237305</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="I21">
+        <v>27.3</v>
+      </c>
+      <c r="J21">
         <v>100</v>
       </c>
-      <c r="K21" s="2">
-        <v>2.8810698986053467</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="K21">
+        <v>2.9</v>
+      </c>
+      <c r="L21">
         <v>100</v>
       </c>
-      <c r="M21" s="2">
-        <v>52.025596618652344</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="M21">
+        <v>52</v>
+      </c>
+      <c r="N21">
         <v>100</v>
       </c>
-      <c r="O21" s="2">
-        <v>22.047531127929688</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
         <v>100</v>
       </c>
-      <c r="Q21" s="2">
-        <v>34.848342895507813</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="Q21">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R21">
         <v>100</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21">
         <v>-262257728</v>
       </c>
-      <c r="T21" s="2">
-        <v>95.2249755859375</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="T21">
+        <v>95.2</v>
+      </c>
+      <c r="U21">
         <v>100</v>
       </c>
-      <c r="V21" s="1">
-        <v>293075.875</v>
-      </c>
-      <c r="W21" s="2">
-        <v>8.2657977938652039E-2</v>
-      </c>
-      <c r="X21" s="2">
+      <c r="V21">
+        <v>293075.90000000002</v>
+      </c>
+      <c r="W21">
+        <v>0.1</v>
+      </c>
+      <c r="X21">
         <v>100</v>
       </c>
       <c r="Z21" s="3">
@@ -3621,7 +3625,7 @@
         <v>0.1(100)</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" hidden="1">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>37.9(37.9)</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:46" hidden="1">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>19.9(57.8)</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" hidden="1">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>13.9(71.7)</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" hidden="1">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>9(80.7)</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" hidden="1">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>6.1(86.8)</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" hidden="1">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>4.3(91.1)</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" hidden="1">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>3.6(94.6)</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:46" hidden="1">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>2.8(97.4)</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:46" hidden="1">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>1.5(98.9)</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:46" hidden="1">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -5101,7 +5105,7 @@
         <v>1.1(100)</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:46" hidden="1">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>27.7(27.7)</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:46" hidden="1">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>30.9(58.6)</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:46" hidden="1">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>20.5(79.1)</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:46" hidden="1">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>10.5(89.5)</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:46" hidden="1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>5.3(94.8)</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" hidden="1">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>2.3(97.1)</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:46" hidden="1">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>1.6(98.7)</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:46" hidden="1">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>0.7(99.4)</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:46" hidden="1">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>0.4(99.8)</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:46" hidden="1">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>0.2(100)</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" hidden="1">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>33.5(33.5)</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:46" hidden="1">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>26.1(59.6)</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:46" hidden="1">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>16.7(76.3)</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" hidden="1">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>11(87.3)</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:46" hidden="1">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>5.1(92.4)</v>
       </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:46" hidden="1">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>3.2(95.5)</v>
       </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:46" hidden="1">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>2(97.6)</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:46" hidden="1">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>1.1(98.7)</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:46" hidden="1">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>0.8(99.5)</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:46" hidden="1">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>0.5(100)</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:46" hidden="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>30(30)</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:46" hidden="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8357,7 +8361,7 @@
         <v>23.9(53.9)</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:46" hidden="1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>16.7(70.6)</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:46" hidden="1">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>11(81.6)</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:46" hidden="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>6.8(88.5)</v>
       </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:46" hidden="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>5(93.5)</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:46" hidden="1">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>3.2(96.6)</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" hidden="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>2(98.7)</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" hidden="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -9393,7 +9397,7 @@
         <v>1(99.7)</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:46" hidden="1">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -9542,8 +9546,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AT61" xr:uid="{432F1F11-D78A-4EE8-A490-8E41F7C4108D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Japan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>